--- a/result_data/answer sheet.xlsx
+++ b/result_data/answer sheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUHK MSc Computer Science\Term2\CMSC 5718\assignments\assignment3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F4E771-A823-4A4E-BF35-DED59EFF09B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,8 +92,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,14 +108,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +277,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -481,9 +804,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -691,24 +1256,68 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -728,7 +1337,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -750,6 +1359,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -758,26 +1368,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -786,10 +1376,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11967819239986306"/>
-          <c:y val="0.14580521705969607"/>
-          <c:w val="0.68672115022935176"/>
-          <c:h val="0.75198567958219942"/>
+          <c:x val="0.119678192399863"/>
+          <c:y val="0.145805217059696"/>
+          <c:w val="0.686721150229352"/>
+          <c:h val="0.751985679582199"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -809,6 +1399,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$21:$K$23</c:f>
@@ -819,19 +1412,14 @@
                   <c:v>0.3498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37580000000000002</c:v>
+                  <c:v>0.3758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33600000000000002</c:v>
+                  <c:v>0.336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C71-42F7-A117-B7ACFC07C3B3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -846,6 +1434,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$21:$L$23</c:f>
@@ -853,22 +1444,17 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.18E-2</c:v>
+                  <c:v>-0.0118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.53E-2</c:v>
+                  <c:v>0.0453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4300000000000001E-2</c:v>
+                  <c:v>0.0543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C71-42F7-A117-B7ACFC07C3B3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -899,11 +1485,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-3C71-42F7-A117-B7ACFC07C3B3}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -921,11 +1502,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3C71-42F7-A117-B7ACFC07C3B3}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -943,12 +1519,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-3C71-42F7-A117-B7ACFC07C3B3}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$M$21:$M$23</c:f>
@@ -956,22 +1530,17 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57889999999999997</c:v>
+                  <c:v>0.5789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60970000000000002</c:v>
+                  <c:v>0.6097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C71-42F7-A117-B7ACFC07C3B3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -997,6 +1566,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1178184304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1041,7 +1629,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1053,7 +1641,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1178191024"/>
@@ -1093,9 +1680,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1652,7 +2238,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1666,20 +2252,14 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CACD5C7-6093-61A9-D796-810E0C1E7585}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="748665" y="5365115"/>
+        <a:ext cx="5255260" cy="3204845"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1702,21 +2282,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>38651</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="文本框 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C49A5C4-F3FF-3646-3542-A480E6A2735D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1811130" y="8288129"/>
-          <a:ext cx="590826" cy="231913"/>
+          <a:off x="1654810" y="8269605"/>
+          <a:ext cx="523240" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1770,21 +2344,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>36442</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C62D85F-5E57-4311-B5CF-D41850164CCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3189356" y="8285920"/>
-          <a:ext cx="590826" cy="231913"/>
+          <a:off x="2898140" y="8267065"/>
+          <a:ext cx="523240" cy="229235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,21 +2406,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>34235</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="文本框 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD30FAC-7EFA-4777-883C-F5F5550FBB69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562061" y="8283713"/>
-          <a:ext cx="590826" cy="231913"/>
+          <a:off x="4131310" y="8265160"/>
+          <a:ext cx="518795" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,21 +2468,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>138044</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964EB8ED-735E-FB55-88E3-534AD3ACCD10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5841999" y="6062870"/>
-          <a:ext cx="88348" cy="82826"/>
+          <a:off x="5262880" y="6061075"/>
+          <a:ext cx="88265" cy="83185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1975,21 +2531,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>168966</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF5EF60-5B02-4D10-911E-DF3145C3A601}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5839790" y="6270488"/>
-          <a:ext cx="88348" cy="82826"/>
+          <a:off x="5260340" y="6267450"/>
+          <a:ext cx="88265" cy="83185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2041,21 +2591,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>23193</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DCCA0B-EA55-4514-93BB-25BAD67504A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5843103" y="6478106"/>
-          <a:ext cx="88348" cy="82826"/>
+          <a:off x="5263515" y="6473825"/>
+          <a:ext cx="88265" cy="81280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2107,21 +2651,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8DA453-DC5A-8246-9434-66CE66E402D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5946913" y="6211956"/>
-          <a:ext cx="375477" cy="231913"/>
+          <a:off x="5367655" y="6209030"/>
+          <a:ext cx="375285" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,21 +2712,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>36443</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文本框 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B3AD4A-258E-4371-9A7F-8FA2924CABCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5939183" y="5988878"/>
-          <a:ext cx="427382" cy="231913"/>
+          <a:off x="5360035" y="5988685"/>
+          <a:ext cx="427355" cy="229235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2241,21 +2773,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>100496</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文本框 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C22BAFD-961D-4422-8A16-E7B04849A931}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="文本框 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5948018" y="6406322"/>
-          <a:ext cx="479286" cy="231913"/>
+          <a:off x="5368925" y="6402070"/>
+          <a:ext cx="478790" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2570,33 +3096,33 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="6" max="7" width="9.4140625"/>
+    <col min="1" max="1" width="11.9166666666667" customWidth="1"/>
+    <col min="6" max="7" width="9.41666666666667"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="18.9140625" customWidth="1"/>
+    <col min="10" max="10" width="10.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="18.9166666666667" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" ht="14.55" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2616,7 +3142,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2646,7 +3172,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" ht="14.55" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
@@ -2690,7 +3216,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="12">
         <v>1</v>
@@ -2720,13 +3246,13 @@
         <v>38817.07</v>
       </c>
       <c r="K4" s="57">
-        <v>6.5299999999999997E-2</v>
+        <v>0.0653</v>
       </c>
       <c r="L4" s="58">
-        <v>-3.73E-2</v>
+        <v>-0.0373</v>
       </c>
       <c r="M4" s="59">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="N4" s="60">
         <v>0</v>
@@ -2736,7 +3262,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="19">
         <f>B4+1</f>
@@ -2760,32 +3286,32 @@
         <v>232.93</v>
       </c>
       <c r="H5" s="25">
-        <v>34935.360000000001</v>
+        <v>34935.36</v>
       </c>
       <c r="I5" s="62">
-        <v>35989.410000000003</v>
+        <v>35989.41</v>
       </c>
       <c r="J5" s="63">
         <v>35790.54</v>
       </c>
       <c r="K5" s="64">
-        <v>6.2600000000000003E-2</v>
+        <v>0.0626</v>
       </c>
       <c r="L5" s="65">
-        <v>-2.2700000000000001E-2</v>
+        <v>-0.0227</v>
       </c>
       <c r="M5" s="66">
         <v>-0.36</v>
       </c>
       <c r="N5" s="67">
-        <v>9.9699999999999997E-2</v>
+        <v>0.0997</v>
       </c>
       <c r="O5" s="68">
-        <v>0.90659999999999996</v>
+        <v>0.9066</v>
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="2"/>
       <c r="B6" s="19">
         <f t="shared" ref="B6:B14" si="0">B5+1</f>
@@ -2812,29 +3338,29 @@
         <v>31053.66</v>
       </c>
       <c r="I6" s="62">
-        <v>32927.519999999997</v>
+        <v>32927.52</v>
       </c>
       <c r="J6" s="63">
         <v>32563.62</v>
       </c>
       <c r="K6" s="64">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="L6" s="65">
-        <v>-8.3000000000000001E-3</v>
+        <v>-0.0083</v>
       </c>
       <c r="M6" s="66">
         <v>-0.13</v>
       </c>
       <c r="N6" s="67">
-        <v>0.32640000000000002</v>
+        <v>0.3264</v>
       </c>
       <c r="O6" s="68">
-        <v>0.67869999999999997</v>
+        <v>0.6787</v>
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2"/>
       <c r="B7" s="19">
         <f t="shared" si="0"/>
@@ -2867,10 +3393,10 @@
         <v>29140.19</v>
       </c>
       <c r="K7" s="64">
-        <v>7.2400000000000006E-2</v>
+        <v>0.0724</v>
       </c>
       <c r="L7" s="65">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="M7" s="66">
         <v>0.08</v>
@@ -2883,7 +3409,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="2"/>
       <c r="B8" s="19">
         <f t="shared" si="0"/>
@@ -2907,32 +3433,32 @@
         <v>996.71</v>
       </c>
       <c r="H8" s="25">
-        <v>23290.240000000002</v>
+        <v>23290.24</v>
       </c>
       <c r="I8" s="62">
-        <v>26101.040000000001</v>
+        <v>26101.04</v>
       </c>
       <c r="J8" s="63">
         <v>25524.12</v>
       </c>
       <c r="K8" s="64">
-        <v>8.3199999999999996E-2</v>
+        <v>0.0832</v>
       </c>
       <c r="L8" s="65">
-        <v>1.9800000000000002E-2</v>
+        <v>0.0198</v>
       </c>
       <c r="M8" s="66">
         <v>0.24</v>
       </c>
       <c r="N8" s="67">
-        <v>0.74570000000000003</v>
+        <v>0.7457</v>
       </c>
       <c r="O8" s="68">
-        <v>0.25159999999999999</v>
+        <v>0.2516</v>
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="2"/>
       <c r="B9" s="19">
         <f t="shared" si="0"/>
@@ -2965,23 +3491,23 @@
         <v>21719.32</v>
       </c>
       <c r="K9" s="64">
-        <v>9.64E-2</v>
+        <v>0.0964</v>
       </c>
       <c r="L9" s="65">
-        <v>3.3500000000000002E-2</v>
+        <v>0.0335</v>
       </c>
       <c r="M9" s="66">
         <v>0.35</v>
       </c>
       <c r="N9" s="67">
-        <v>0.85780000000000001</v>
+        <v>0.8578</v>
       </c>
       <c r="O9" s="68">
-        <v>0.13819999999999999</v>
+        <v>0.1382</v>
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -3011,26 +3537,26 @@
         <v>18337.62</v>
       </c>
       <c r="J10" s="63">
-        <v>17729.650000000001</v>
+        <v>17729.65</v>
       </c>
       <c r="K10" s="64">
         <v>0.1109</v>
       </c>
       <c r="L10" s="65">
-        <v>4.7100000000000003E-2</v>
+        <v>0.0471</v>
       </c>
       <c r="M10" s="66">
         <v>0.42</v>
       </c>
       <c r="N10" s="67">
-        <v>0.92359999999999998</v>
+        <v>0.9236</v>
       </c>
       <c r="O10" s="68">
-        <v>7.2400000000000006E-2</v>
+        <v>0.0724</v>
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="19">
         <f t="shared" si="0"/>
@@ -3063,23 +3589,23 @@
         <v>13559</v>
       </c>
       <c r="K11" s="64">
-        <v>0.12640000000000001</v>
+        <v>0.1264</v>
       </c>
       <c r="L11" s="65">
-        <v>6.0400000000000002E-2</v>
+        <v>0.0604</v>
       </c>
       <c r="M11" s="66">
         <v>0.48</v>
       </c>
       <c r="N11" s="67">
-        <v>0.96140000000000003</v>
+        <v>0.9614</v>
       </c>
       <c r="O11" s="68">
-        <v>3.5400000000000001E-2</v>
+        <v>0.0354</v>
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -3097,7 +3623,7 @@
         <v>2236.91</v>
       </c>
       <c r="F12" s="23">
-        <v>2133.2199999999998</v>
+        <v>2133.22</v>
       </c>
       <c r="G12" s="24">
         <v>2158.17</v>
@@ -3106,7 +3632,7 @@
         <v>7763.41</v>
       </c>
       <c r="I12" s="62">
-        <v>9637.2800000000007</v>
+        <v>9637.28</v>
       </c>
       <c r="J12" s="63">
         <v>9211.25</v>
@@ -3115,20 +3641,20 @@
         <v>0.1426</v>
       </c>
       <c r="L12" s="65">
-        <v>7.3599999999999999E-2</v>
+        <v>0.0736</v>
       </c>
       <c r="M12" s="66">
         <v>0.52</v>
       </c>
       <c r="N12" s="67">
-        <v>0.98270000000000002</v>
+        <v>0.9827</v>
       </c>
       <c r="O12" s="68">
-        <v>1.52E-2</v>
+        <v>0.0152</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="19">
         <f t="shared" si="0"/>
@@ -3143,13 +3669,13 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="22">
-        <v>2516.5300000000002</v>
+        <v>2516.53</v>
       </c>
       <c r="F13" s="23">
-        <v>2458.1999999999998</v>
+        <v>2458.2</v>
       </c>
       <c r="G13" s="24">
-        <v>2472.5700000000002</v>
+        <v>2472.57</v>
       </c>
       <c r="H13" s="25">
         <v>3881.71</v>
@@ -3161,23 +3687,23 @@
         <v>4690.29</v>
       </c>
       <c r="K13" s="64">
-        <v>0.15909999999999999</v>
+        <v>0.1591</v>
       </c>
       <c r="L13" s="65">
-        <v>8.6599999999999996E-2</v>
+        <v>0.0866</v>
       </c>
       <c r="M13" s="66">
         <v>0.54</v>
       </c>
       <c r="N13" s="67">
-        <v>0.99429999999999996</v>
+        <v>0.9943</v>
       </c>
       <c r="O13" s="68">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -3210,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="72">
-        <v>0.17599999999999999</v>
+        <v>0.176</v>
       </c>
       <c r="L14" s="73">
-        <v>9.9500000000000005E-2</v>
+        <v>0.0995</v>
       </c>
       <c r="M14" s="74">
-        <v>0.56999999999999995</v>
+        <v>0.56</v>
       </c>
       <c r="N14" s="75">
         <v>1</v>
@@ -3226,7 +3752,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="32"/>
@@ -3244,7 +3770,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -3261,7 +3787,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" ht="14.55" spans="1:13">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -3280,7 +3806,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3303,7 +3829,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" ht="14.55" spans="1:13">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3336,7 +3862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3353,7 +3879,7 @@
         <v>27031.63</v>
       </c>
       <c r="H21" s="41">
-        <v>6.3E-3</v>
+        <v>0.0063</v>
       </c>
       <c r="I21" s="79">
         <v>0.2213</v>
@@ -3365,13 +3891,13 @@
         <v>0.3498</v>
       </c>
       <c r="L21" s="82">
-        <v>-1.18E-2</v>
+        <v>-0.0118</v>
       </c>
       <c r="M21" s="83">
-        <v>0.66200000000000003</v>
+        <v>0.662</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3388,25 +3914,25 @@
         <v>19400.47</v>
       </c>
       <c r="H22" s="46">
-        <v>1.03E-2</v>
+        <v>0.0103</v>
       </c>
       <c r="I22" s="84">
-        <v>-2.3099999999999999E-2</v>
+        <v>-0.0231</v>
       </c>
       <c r="J22" s="85">
         <v>-2.25</v>
       </c>
       <c r="K22" s="86">
-        <v>0.37580000000000002</v>
+        <v>0.3758</v>
       </c>
       <c r="L22" s="87">
-        <v>4.53E-2</v>
+        <v>0.0453</v>
       </c>
       <c r="M22" s="88">
-        <v>0.57889999999999997</v>
+        <v>0.5789</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" ht="14.55" spans="1:13">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3423,28 +3949,28 @@
         <v>16195.34</v>
       </c>
       <c r="H23" s="51">
-        <v>5.4999999999999997E-3</v>
+        <v>0.0055</v>
       </c>
       <c r="I23" s="89">
-        <v>9.2700000000000005E-2</v>
+        <v>0.0927</v>
       </c>
       <c r="J23" s="90">
         <v>16.95</v>
       </c>
       <c r="K23" s="91">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="L23" s="92">
-        <v>5.4300000000000001E-2</v>
+        <v>0.0543</v>
       </c>
       <c r="M23" s="93">
-        <v>0.60970000000000002</v>
+        <v>0.6097</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>